--- a/data/write_test.xlsx
+++ b/data/write_test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" sheetId="1" r:id="rId4" name="シート1"/>
+    <sheet name="シート1" r:id="rId4" state="visible" sheetId="1"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -40,18 +40,18 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" numFmtId="0" applyAlignment="1" applyFont="1" fillId="0" fontId="0"/>
+    <xf applyFont="1" borderId="0" fontId="0" fillId="0" numFmtId="0" applyAlignment="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf fillId="0" fontId="0" xfId="0" applyAlignment="1" applyFont="1" borderId="0" numFmtId="0">
-      <alignment readingOrder="0" vertical="bottom" wrapText="0" shrinkToFit="0"/>
+    <xf fontId="0" borderId="0" fillId="0" applyAlignment="1" applyFont="1" numFmtId="0" xfId="0">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fontId="1" numFmtId="0" fillId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fontId="1" applyFont="1" fillId="0" xfId="0" numFmtId="0" applyAlignment="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" xfId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -168,25 +168,25 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="0" ang="5400000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
+        <a:ln cap="flat" w="6350" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
+        <a:ln algn="ctr" cap="flat" w="12700" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln cmpd="sng" algn="ctr" w="19050" cap="flat">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -203,7 +203,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dist="19050" dir="5400000" blurRad="57150" rotWithShape="0" algn="ctr">
+            <a:outerShdw algn="ctr" dist="19050" dir="5400000" blurRad="57150" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -255,9 +255,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -265,7 +265,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c s="1" r="A1">
+      <c r="A1" s="1">
         <v>1.0</v>
       </c>
       <c r="B1" s="1">
@@ -273,10 +273,10 @@
       </c>
     </row>
     <row r="2">
-      <c s="1" r="A2">
+      <c r="A2" s="1">
         <v>2.0</v>
       </c>
-      <c s="1" r="B2">
+      <c r="B2" s="1">
         <v>4.0</v>
       </c>
     </row>

--- a/data/write_test.xlsx
+++ b/data/write_test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <sheets>
-    <sheet name="シート1" r:id="rId4" state="visible" sheetId="1"/>
+    <sheet sheetId="1" name="シート1" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -40,18 +40,18 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyFont="1" borderId="0" fontId="0" fillId="0" numFmtId="0" applyAlignment="1"/>
+    <xf applyFont="1" fillId="0" borderId="0" fontId="0" numFmtId="0" applyAlignment="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf fontId="0" borderId="0" fillId="0" applyAlignment="1" applyFont="1" numFmtId="0" xfId="0">
+    <xf borderId="0" numFmtId="0" applyAlignment="1" xfId="0" applyFont="1" fontId="0" fillId="0">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fontId="1" applyFont="1" fillId="0" xfId="0" numFmtId="0" applyAlignment="1">
+    <xf applyFont="1" fontId="1" borderId="0" numFmtId="0" applyAlignment="1" fillId="0" xfId="0">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" xfId="0" name="Normal"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -168,25 +168,25 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="0" ang="5400000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" w="6350" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" w="6350" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" w="12700" cmpd="sng">
+        <a:ln cmpd="sng" algn="ctr" cap="flat" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cmpd="sng" algn="ctr" w="19050" cap="flat">
+        <a:ln algn="ctr" cap="flat" w="19050" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -203,7 +203,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" dist="19050" dir="5400000" blurRad="57150" rotWithShape="0">
+            <a:outerShdw dist="19050" algn="ctr" blurRad="57150" rotWithShape="0" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -246,7 +246,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="0" ang="5400000"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -255,20 +255,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
+<worksheet xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
   <sheetPr>
-    <outlinePr summaryRight="0" summaryBelow="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" defaultColWidth="12.63"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
+      <c s="1" r="A1">
         <v>1.0</v>
       </c>
-      <c r="B1" s="1">
+      <c s="1" r="B1">
         <v>3.0</v>
       </c>
     </row>
@@ -276,7 +276,7 @@
       <c r="A2" s="1">
         <v>2.0</v>
       </c>
-      <c r="B2" s="1">
+      <c s="1" r="B2">
         <v>4.0</v>
       </c>
     </row>

--- a/data/write_test.xlsx
+++ b/data/write_test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="シート1" state="visible" r:id="rId4"/>
+    <sheet name="シート1" r:id="rId4" state="visible" sheetId="1"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -40,18 +40,18 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyFont="1" fillId="0" borderId="0" fontId="0" numFmtId="0" applyAlignment="1"/>
+    <xf applyFont="1" borderId="0" fontId="0" fillId="0" numFmtId="0" applyAlignment="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" numFmtId="0" applyAlignment="1" xfId="0" applyFont="1" fontId="0" fillId="0">
+    <xf fontId="0" borderId="0" fillId="0" applyAlignment="1" applyFont="1" numFmtId="0" xfId="0">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyFont="1" fontId="1" borderId="0" numFmtId="0" applyAlignment="1" fillId="0" xfId="0">
+    <xf borderId="0" fontId="1" applyFont="1" fillId="0" xfId="0" numFmtId="0" applyAlignment="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle builtinId="0" xfId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -168,25 +168,25 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="0" ang="5400000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" w="6350" cap="flat" cmpd="sng">
+        <a:ln cap="flat" w="6350" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cmpd="sng" algn="ctr" cap="flat" w="12700">
+        <a:ln algn="ctr" cap="flat" w="12700" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" w="19050" cmpd="sng">
+        <a:ln cmpd="sng" algn="ctr" w="19050" cap="flat">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -203,7 +203,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dist="19050" algn="ctr" blurRad="57150" rotWithShape="0" dir="5400000">
+            <a:outerShdw algn="ctr" dist="19050" dir="5400000" blurRad="57150" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -246,7 +246,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="0" ang="5400000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -255,20 +255,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" defaultColWidth="12.63"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c s="1" r="A1">
+      <c r="A1" s="1">
         <v>1.0</v>
       </c>
-      <c s="1" r="B1">
+      <c r="B1" s="1">
         <v>3.0</v>
       </c>
     </row>
@@ -276,7 +276,7 @@
       <c r="A2" s="1">
         <v>2.0</v>
       </c>
-      <c s="1" r="B2">
+      <c r="B2" s="1">
         <v>4.0</v>
       </c>
     </row>

--- a/data/write_test.xlsx
+++ b/data/write_test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <workbookPr/>
   <sheets>
-    <sheet name="シート1" r:id="rId4" state="visible" sheetId="1"/>
+    <sheet name="シート1" sheetId="1" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -40,18 +40,18 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyFont="1" borderId="0" fontId="0" fillId="0" numFmtId="0" applyAlignment="1"/>
+    <xf numFmtId="0" applyFont="1" borderId="0" fontId="0" applyAlignment="1" fillId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf fontId="0" borderId="0" fillId="0" applyAlignment="1" applyFont="1" numFmtId="0" xfId="0">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fontId="1" applyFont="1" fillId="0" xfId="0" numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" xfId="0" applyAlignment="1" borderId="0" fillId="0" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" xfId="0" name="Normal"/>
+    <cellStyle name="Normal" builtinId="0" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -142,7 +142,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="0" ang="5400000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -168,25 +168,25 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="0" ang="5400000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" w="6350" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" w="6350" cmpd="sng" cap="flat">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" w="12700" cmpd="sng">
+        <a:ln algn="ctr" w="12700" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cmpd="sng" algn="ctr" w="19050" cap="flat">
+        <a:ln w="19050" algn="ctr" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -203,7 +203,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" dist="19050" dir="5400000" blurRad="57150" rotWithShape="0">
+            <a:outerShdw dist="19050" algn="ctr" dir="5400000" blurRad="57150" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -255,9 +255,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
+<worksheet xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <sheetPr>
-    <outlinePr summaryRight="0" summaryBelow="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -273,10 +273,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c s="1" r="A2">
         <v>2.0</v>
       </c>
-      <c r="B2" s="1">
+      <c s="1" r="B2">
         <v>4.0</v>
       </c>
     </row>
